--- a/rtss-losses-199x/src/main/resources/199x-population-births-deaths.xlsx
+++ b/rtss-losses-199x/src/main/resources/199x-population-births-deaths.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-losses-199x\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-losses-199x\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27FCB6D-44A2-4EA2-A48E-E946A85908EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E7E743-70D3-4B62-A9CB-E2CB7194799D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" activeTab="1" xr2:uid="{7870065C-55A9-4820-9707-F0E0DCAEA879}"/>
+    <workbookView xWindow="73845" yWindow="105" windowWidth="35115" windowHeight="20295" activeTab="1" xr2:uid="{7870065C-55A9-4820-9707-F0E0DCAEA879}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data с Крымом" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>год</t>
   </si>
@@ -95,6 +100,15 @@
   </si>
   <si>
     <t>Фактическая численность населения на 1 января каждого года в 1989-2016 гг., тыс. чел.</t>
+  </si>
+  <si>
+    <t>эмиграция</t>
+  </si>
+  <si>
+    <t>иммиграция</t>
+  </si>
+  <si>
+    <t>миграционный прирост</t>
   </si>
 </sst>
 </file>
@@ -182,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -218,6 +232,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -236,9 +253,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -276,7 +293,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -382,7 +399,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -524,7 +541,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -538,69 +555,69 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -612,28 +629,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{689A3D30-8188-4337-8214-5B5DF56B7BB9}">
-  <dimension ref="A1:O55"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="2.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="5" width="20.85546875" customWidth="1"/>
-    <col min="6" max="6" width="3.28515625" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="2.5703125" customWidth="1"/>
+    <col min="2" max="2" width="2.15625" customWidth="1"/>
+    <col min="3" max="3" width="18.15625" customWidth="1"/>
+    <col min="4" max="5" width="20.83984375" customWidth="1"/>
+    <col min="6" max="6" width="3.26171875" customWidth="1"/>
+    <col min="7" max="7" width="21.83984375" customWidth="1"/>
+    <col min="8" max="8" width="16.41796875" customWidth="1"/>
+    <col min="9" max="9" width="19.68359375" customWidth="1"/>
+    <col min="10" max="10" width="2.578125" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.41796875" customWidth="1"/>
+    <col min="13" max="13" width="15.26171875" customWidth="1"/>
+    <col min="14" max="14" width="2.7890625" customWidth="1"/>
+    <col min="15" max="15" width="14.62890625" customWidth="1"/>
+    <col min="16" max="16" width="12.3125" customWidth="1"/>
+    <col min="17" max="17" width="20.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -667,8 +688,18 @@
       <c r="M1" s="16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N1" s="4"/>
+      <c r="O1" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="9">
         <v>1989</v>
       </c>
@@ -702,10 +733,10 @@
       <c r="M2" s="13">
         <v>495272</v>
       </c>
-      <c r="N2" s="1"/>
+      <c r="N2" s="14"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="9">
         <v>1990</v>
       </c>
@@ -739,10 +770,19 @@
       <c r="M3" s="13">
         <v>515380</v>
       </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N3" s="14"/>
+      <c r="O3" s="3">
+        <v>729467</v>
+      </c>
+      <c r="P3">
+        <v>913223</v>
+      </c>
+      <c r="Q3" s="3">
+        <f>P3-O3</f>
+        <v>183756</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="9">
         <v>1991</v>
       </c>
@@ -776,10 +816,19 @@
       <c r="M4" s="13">
         <v>521770</v>
       </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N4" s="14"/>
+      <c r="O4" s="3">
+        <v>675497</v>
+      </c>
+      <c r="P4">
+        <v>692238</v>
+      </c>
+      <c r="Q4" s="3">
+        <f t="shared" ref="Q4:Q31" si="0">P4-O4</f>
+        <v>16741</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="9">
         <v>1992</v>
       </c>
@@ -813,10 +862,19 @@
       <c r="M5" s="13">
         <v>552600</v>
       </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N5" s="14"/>
+      <c r="O5" s="3">
+        <v>673143</v>
+      </c>
+      <c r="P5">
+        <v>926020</v>
+      </c>
+      <c r="Q5" s="3">
+        <f t="shared" si="0"/>
+        <v>252877</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="9">
         <v>1993</v>
       </c>
@@ -850,10 +908,19 @@
       <c r="M6" s="13">
         <v>640977</v>
       </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N6" s="14"/>
+      <c r="O6" s="3">
+        <v>483028</v>
+      </c>
+      <c r="P6">
+        <v>923280</v>
+      </c>
+      <c r="Q6" s="3">
+        <f t="shared" si="0"/>
+        <v>440252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="9">
         <v>1994</v>
       </c>
@@ -887,10 +954,19 @@
       <c r="M7" s="13">
         <v>686383</v>
       </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N7" s="14"/>
+      <c r="O7" s="3">
+        <v>345623</v>
+      </c>
+      <c r="P7">
+        <v>1191355</v>
+      </c>
+      <c r="Q7" s="3">
+        <f t="shared" si="0"/>
+        <v>845732</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="9">
         <v>1995</v>
       </c>
@@ -924,10 +1000,19 @@
       <c r="M8" s="13">
         <v>649629</v>
       </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N8" s="14"/>
+      <c r="O8" s="3">
+        <v>347338</v>
+      </c>
+      <c r="P8">
+        <v>866857</v>
+      </c>
+      <c r="Q8" s="3">
+        <f t="shared" si="0"/>
+        <v>519519</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="9">
         <v>1996</v>
       </c>
@@ -961,10 +1046,19 @@
       <c r="M9" s="13">
         <v>636267</v>
       </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N9" s="14"/>
+      <c r="O9" s="3">
+        <v>291642</v>
+      </c>
+      <c r="P9">
+        <v>647026</v>
+      </c>
+      <c r="Q9" s="3">
+        <f t="shared" si="0"/>
+        <v>355384</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="9">
         <v>1997</v>
       </c>
@@ -998,10 +1092,19 @@
       <c r="M10" s="13">
         <v>628008</v>
       </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N10" s="14"/>
+      <c r="O10" s="3">
+        <v>232987</v>
+      </c>
+      <c r="P10">
+        <v>597651</v>
+      </c>
+      <c r="Q10" s="3">
+        <f t="shared" si="0"/>
+        <v>364664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="9">
         <v>1998</v>
       </c>
@@ -1035,10 +1138,19 @@
       <c r="M11" s="13">
         <v>608940</v>
       </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N11" s="14"/>
+      <c r="O11" s="3">
+        <v>213377</v>
+      </c>
+      <c r="P11">
+        <v>513551</v>
+      </c>
+      <c r="Q11" s="3">
+        <f t="shared" si="0"/>
+        <v>300174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="9">
         <v>1999</v>
       </c>
@@ -1072,10 +1184,19 @@
       <c r="M12" s="13">
         <v>644850</v>
       </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N12" s="14"/>
+      <c r="O12" s="3">
+        <v>214963</v>
+      </c>
+      <c r="P12">
+        <v>379726</v>
+      </c>
+      <c r="Q12" s="3">
+        <f t="shared" si="0"/>
+        <v>164763</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="9">
         <v>2000</v>
       </c>
@@ -1109,10 +1230,19 @@
       <c r="M13" s="13">
         <v>661298</v>
       </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N13" s="14"/>
+      <c r="O13" s="3">
+        <v>145720</v>
+      </c>
+      <c r="P13">
+        <v>359330</v>
+      </c>
+      <c r="Q13" s="3">
+        <f t="shared" si="0"/>
+        <v>213610</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="9">
         <v>2001</v>
       </c>
@@ -1146,10 +1276,19 @@
       <c r="M14" s="13">
         <v>662602</v>
       </c>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N14" s="14"/>
+      <c r="O14" s="3">
+        <v>121166</v>
+      </c>
+      <c r="P14">
+        <v>193450</v>
+      </c>
+      <c r="Q14" s="3">
+        <f t="shared" si="0"/>
+        <v>72284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="9">
         <v>2002</v>
       </c>
@@ -1183,10 +1322,19 @@
       <c r="M15" s="13">
         <v>693450</v>
       </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N15" s="14"/>
+      <c r="O15" s="3">
+        <v>106685</v>
+      </c>
+      <c r="P15">
+        <v>184612</v>
+      </c>
+      <c r="Q15" s="3">
+        <f t="shared" si="0"/>
+        <v>77927</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="9">
         <v>2003</v>
       </c>
@@ -1220,10 +1368,19 @@
       <c r="M16" s="13">
         <v>708257</v>
       </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N16" s="14"/>
+      <c r="O16" s="3">
+        <v>94018</v>
+      </c>
+      <c r="P16">
+        <v>129144</v>
+      </c>
+      <c r="Q16" s="3">
+        <f t="shared" si="0"/>
+        <v>35126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="9">
         <v>2004</v>
       </c>
@@ -1257,10 +1414,19 @@
       <c r="M17" s="13">
         <v>688508</v>
       </c>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N17" s="14"/>
+      <c r="O17" s="3">
+        <v>79795</v>
+      </c>
+      <c r="P17">
+        <v>119157</v>
+      </c>
+      <c r="Q17" s="3">
+        <f t="shared" si="0"/>
+        <v>39362</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="9">
         <v>2005</v>
       </c>
@@ -1294,10 +1460,19 @@
       <c r="M18" s="13">
         <v>708173</v>
       </c>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N18" s="14"/>
+      <c r="O18" s="3">
+        <v>69798</v>
+      </c>
+      <c r="P18">
+        <v>177230</v>
+      </c>
+      <c r="Q18" s="3">
+        <f t="shared" si="0"/>
+        <v>107432</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="9">
         <v>2006</v>
       </c>
@@ -1331,10 +1506,19 @@
       <c r="M19" s="13">
         <v>665458</v>
       </c>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N19" s="14"/>
+      <c r="O19" s="3">
+        <v>54061</v>
+      </c>
+      <c r="P19">
+        <v>186380</v>
+      </c>
+      <c r="Q19" s="3">
+        <f t="shared" si="0"/>
+        <v>132319</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="9">
         <v>2007</v>
       </c>
@@ -1368,10 +1552,19 @@
       <c r="M20" s="13">
         <v>635034</v>
       </c>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N20" s="14"/>
+      <c r="O20" s="3">
+        <v>47013</v>
+      </c>
+      <c r="P20">
+        <v>286956</v>
+      </c>
+      <c r="Q20" s="3">
+        <f t="shared" si="0"/>
+        <v>239943</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="9">
         <v>2008</v>
       </c>
@@ -1405,10 +1598,19 @@
       <c r="M21" s="13">
         <v>632425</v>
       </c>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N21" s="14"/>
+      <c r="O21" s="3">
+        <v>39508</v>
+      </c>
+      <c r="P21">
+        <v>281614</v>
+      </c>
+      <c r="Q21" s="3">
+        <f t="shared" si="0"/>
+        <v>242106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="9">
         <v>2009</v>
       </c>
@@ -1442,10 +1644,19 @@
       <c r="M22" s="13">
         <v>612952</v>
       </c>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N22" s="14"/>
+      <c r="O22" s="3">
+        <v>32458</v>
+      </c>
+      <c r="P22">
+        <v>279907</v>
+      </c>
+      <c r="Q22" s="3">
+        <f t="shared" si="0"/>
+        <v>247449</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="9">
         <v>2010</v>
       </c>
@@ -1479,10 +1690,19 @@
       <c r="M23" s="13">
         <v>606782</v>
       </c>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N23" s="14"/>
+      <c r="O23" s="3">
+        <v>33578</v>
+      </c>
+      <c r="P23">
+        <v>191656</v>
+      </c>
+      <c r="Q23" s="3">
+        <f t="shared" si="0"/>
+        <v>158078</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="9">
         <v>2011</v>
       </c>
@@ -1516,10 +1736,19 @@
       <c r="M24" s="13">
         <v>569024</v>
       </c>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N24" s="14"/>
+      <c r="O24" s="3">
+        <v>36774</v>
+      </c>
+      <c r="P24">
+        <v>356535</v>
+      </c>
+      <c r="Q24" s="3">
+        <f t="shared" si="0"/>
+        <v>319761</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="9">
         <v>2012</v>
       </c>
@@ -1553,10 +1782,19 @@
       <c r="M25" s="13">
         <v>552700</v>
       </c>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N25" s="14"/>
+      <c r="O25" s="3">
+        <v>122751</v>
+      </c>
+      <c r="P25">
+        <v>417681</v>
+      </c>
+      <c r="Q25" s="3">
+        <f t="shared" si="0"/>
+        <v>294930</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="9">
         <v>2013</v>
       </c>
@@ -1590,10 +1828,19 @@
       <c r="M26" s="13">
         <v>539304</v>
       </c>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N26" s="14"/>
+      <c r="O26" s="3">
+        <v>186382</v>
+      </c>
+      <c r="P26">
+        <v>482241</v>
+      </c>
+      <c r="Q26" s="3">
+        <f t="shared" si="0"/>
+        <v>295859</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="9">
         <v>2014</v>
       </c>
@@ -1627,10 +1874,19 @@
       <c r="M27" s="13">
         <v>549537</v>
       </c>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N27" s="14"/>
+      <c r="O27" s="3">
+        <v>308475</v>
+      </c>
+      <c r="P27">
+        <v>578511</v>
+      </c>
+      <c r="Q27" s="3">
+        <f t="shared" si="0"/>
+        <v>270036</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="9">
         <v>2015</v>
       </c>
@@ -1664,10 +1920,19 @@
       <c r="M28" s="13">
         <v>546650</v>
       </c>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N28" s="14"/>
+      <c r="O28" s="3">
+        <v>353233</v>
+      </c>
+      <c r="P28">
+        <v>598617</v>
+      </c>
+      <c r="Q28" s="3">
+        <f t="shared" si="0"/>
+        <v>245384</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="9">
         <v>2016</v>
       </c>
@@ -1701,10 +1966,19 @@
       <c r="M29" s="13">
         <v>536071</v>
       </c>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N29" s="14"/>
+      <c r="O29" s="3">
+        <v>313210</v>
+      </c>
+      <c r="P29">
+        <v>575158</v>
+      </c>
+      <c r="Q29" s="3">
+        <f t="shared" si="0"/>
+        <v>261948</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="9">
         <v>2017</v>
       </c>
@@ -1738,8 +2012,19 @@
       <c r="M30" s="13">
         <v>515890</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N30" s="14"/>
+      <c r="O30" s="3">
+        <v>377155</v>
+      </c>
+      <c r="P30">
+        <v>589033</v>
+      </c>
+      <c r="Q30" s="3">
+        <f t="shared" si="0"/>
+        <v>211878</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="9">
         <v>2018</v>
       </c>
@@ -1773,8 +2058,19 @@
       <c r="M31" s="13">
         <v>511207</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N31" s="14"/>
+      <c r="O31" s="3">
+        <v>440831</v>
+      </c>
+      <c r="P31">
+        <v>565685</v>
+      </c>
+      <c r="Q31" s="3">
+        <f t="shared" si="0"/>
+        <v>124854</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="10">
         <v>2019</v>
       </c>
@@ -1797,7 +2093,7 @@
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
     </row>
-    <row r="33" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:13" x14ac:dyDescent="0.55000000000000004">
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -1806,7 +2102,7 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:13" x14ac:dyDescent="0.55000000000000004">
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -1815,7 +2111,7 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:13" x14ac:dyDescent="0.55000000000000004">
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -1824,7 +2120,7 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:13" x14ac:dyDescent="0.55000000000000004">
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -1833,7 +2129,7 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:13" x14ac:dyDescent="0.55000000000000004">
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -1842,7 +2138,7 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="7:13" x14ac:dyDescent="0.55000000000000004">
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -1851,7 +2147,7 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
     </row>
-    <row r="39" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="7:13" x14ac:dyDescent="0.55000000000000004">
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -1860,7 +2156,7 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="7:13" x14ac:dyDescent="0.55000000000000004">
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -1869,7 +2165,7 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
     </row>
-    <row r="41" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="7:13" x14ac:dyDescent="0.55000000000000004">
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -1878,7 +2174,7 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
     </row>
-    <row r="42" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="7:13" x14ac:dyDescent="0.55000000000000004">
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -1887,7 +2183,7 @@
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
     </row>
-    <row r="43" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="7:13" x14ac:dyDescent="0.55000000000000004">
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -1896,7 +2192,7 @@
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
     </row>
-    <row r="44" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="7:13" x14ac:dyDescent="0.55000000000000004">
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -1905,7 +2201,7 @@
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
     </row>
-    <row r="45" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="7:13" x14ac:dyDescent="0.55000000000000004">
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -1914,7 +2210,7 @@
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
     </row>
-    <row r="46" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="7:13" x14ac:dyDescent="0.55000000000000004">
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -1923,7 +2219,7 @@
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
     </row>
-    <row r="47" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="7:13" x14ac:dyDescent="0.55000000000000004">
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
@@ -1932,7 +2228,7 @@
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
     </row>
-    <row r="48" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="7:13" x14ac:dyDescent="0.55000000000000004">
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
@@ -1941,7 +2237,7 @@
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
     </row>
-    <row r="49" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="7:13" x14ac:dyDescent="0.55000000000000004">
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -1950,7 +2246,7 @@
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
     </row>
-    <row r="50" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="7:13" x14ac:dyDescent="0.55000000000000004">
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -1959,7 +2255,7 @@
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
     </row>
-    <row r="51" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="7:13" x14ac:dyDescent="0.55000000000000004">
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
@@ -1968,7 +2264,7 @@
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
     </row>
-    <row r="52" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="7:13" x14ac:dyDescent="0.55000000000000004">
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -1977,7 +2273,7 @@
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
     </row>
-    <row r="53" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="7:13" x14ac:dyDescent="0.55000000000000004">
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
@@ -1986,7 +2282,7 @@
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
     </row>
-    <row r="54" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="7:13" x14ac:dyDescent="0.55000000000000004">
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
@@ -1995,7 +2291,7 @@
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
     </row>
-    <row r="55" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="7:13" x14ac:dyDescent="0.55000000000000004">
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
@@ -2008,4 +2304,10 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{0cf7ac0a-4681-4823-ab0b-04ef02c5f873}" enabled="1" method="Standard" siteId="{42f7676c-f455-423c-82f6-dc2d99791af7}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>